--- a/biology/Biochimie/Acide_phosphorique/Acide_phosphorique.xlsx
+++ b/biology/Biochimie/Acide_phosphorique/Acide_phosphorique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L’acide phosphorique (ou acide orthophosphorique) est un composé chimique de formule H3PO4. C'est un oxoacide trifonctionnel (triacide) important en chimie inorganique et fondamental en biochimie. Il s'agit d'un acide minéral obtenu par traitement de roches phosphatées ou par combustion du phosphore.
 À température ambiante, l'acide phosphorique est un solide cristallin de densité 1,83 qui fond à 42,35 °C[a]. Il constitue la matière première de base pour la production de phosphates (ou sels phosphatés).
-Via les crassiers de phosphogypse, la production de l'acide phosphorique est source d'une importante accumulation de déchets faiblement radioactifs et « Radioactivité naturelle technologiquement renforcée »[8].
+Via les crassiers de phosphogypse, la production de l'acide phosphorique est source d'une importante accumulation de déchets faiblement radioactifs et « Radioactivité naturelle technologiquement renforcée ».
 </t>
         </is>
       </c>
@@ -514,7 +526,9 @@
           <t>Chimie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il s'agit d'un triacide minéral capable de céder trois protons en formant successivement trois bases conjuguées : l'ion dihydrogénophosphate H2PO4−, l'ion hydrogénophosphate HPO42− et l'ion phosphate PO43−, avec les constantes d'équilibres suivantes (à 25 °C) :
 </t>
@@ -545,7 +559,9 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les dimères et trimères de l'acide phosphorique interviennent dans de nombreux domaines en biologie comme les transporteurs d'énergie ADP/ATP, l'ADN et dans les os.
 </t>
@@ -576,7 +592,9 @@
           <t>Production industrielle</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">L'acide phosphorique est généralement obtenu par l'attaque dans un réacteur de l'apatite (principal minerai de phosphate) par de l'acide sulfurique H2SO4. L'apatite est souvent un mélange de :
 chlorapatite Ca5(PO4)3Cl ;
@@ -618,7 +636,9 @@
           <t>Utilisations</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">L'acide phosphorique est très utilisé en laboratoire, car il résiste à l'oxydation, à la réduction et à l'évaporation.
 L'acide phosphorique est employé dans les boissons non alcoolisées comme régulateur de pH (E338) : principalement dans les sodas au cola (Coca-Cola, Pepsi Cola, Dr Pepper)[réf. souhaitée].
@@ -653,9 +673,11 @@
           <t>Risques</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'ingestion d'une quantité importante d'acide phosphorique peut entraver le fonctionnement des reins et favoriser les calculs rénaux. Des chercheurs américains ont interrogé 465 personnes pour lesquelles une insuffisance rénale avait été récemment diagnostiquée et ils ont constaté à partir de la description de leur régime alimentaire qu'à partir de deux verres de Coca-Cola journalier, le risque d'insuffisance rénale est multiplié par deux. Il en est de même avec le Coca-Cola light alors qu'aucune association n'a été trouvée avec les autres sodas[9].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'ingestion d'une quantité importante d'acide phosphorique peut entraver le fonctionnement des reins et favoriser les calculs rénaux. Des chercheurs américains ont interrogé 465 personnes pour lesquelles une insuffisance rénale avait été récemment diagnostiquée et ils ont constaté à partir de la description de leur régime alimentaire qu'à partir de deux verres de Coca-Cola journalier, le risque d'insuffisance rénale est multiplié par deux. Il en est de même avec le Coca-Cola light alors qu'aucune association n'a été trouvée avec les autres sodas.
 </t>
         </is>
       </c>
@@ -684,9 +706,11 @@
           <t>Commerce</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La France, en 2014, est nette importatrice d'acide phosphorique, d'après les douanes françaises. Le prix moyen au kilogramme à l'import était de 0,9 €[10].
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La France, en 2014, est nette importatrice d'acide phosphorique, d'après les douanes françaises. Le prix moyen au kilogramme à l'import était de 0,9 €.
 </t>
         </is>
       </c>
